--- a/medicine/Enfance/Le_Petit_Lion_(série_littéraire)/Le_Petit_Lion_(série_littéraire).xlsx
+++ b/medicine/Enfance/Le_Petit_Lion_(série_littéraire)/Le_Petit_Lion_(série_littéraire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Petit_Lion_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Le_Petit_Lion_(série_littéraire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Petit Lion est une série de treize livres pour enfants de l'écrivain français Georges Chaulet, inspirée de la série télévisée d'animation homonyme et publiée entre 1968 et 1979 aux éditions Hachette dans la collection Bibliothèque rose. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Petit_Lion_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Le_Petit_Lion_(série_littéraire)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste des titres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1968 : Le Petit Lion premier ministre — Illustrations de Pierre Leroy, coll. Nouvelle Bibliothèque rose no 295.
 1969 : Le Petit Lion et la Source enchantée — Ill. Pierre Leroy, Nouvelle Bib. rose no 318.
